--- a/normativa/Anexos/L01T01C07/L01T01C07A12.xlsx
+++ b/normativa/Anexos/L01T01C07/L01T01C07A12.xlsx
@@ -4,71 +4,61 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Nómina Accionistas o Socios" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Nómina Accionistas o Socios'!$A$1:$H$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Nómina Accionistas o Socios'!$A$1:$H$27</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>NACIONALIDAD</t>
-  </si>
-  <si>
-    <t>PROFESIÓN</t>
-  </si>
-  <si>
-    <t>_________________________________</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">FIRMA DEL REPRESENTANTE LEGAL </t>
   </si>
   <si>
-    <t>Lugar y fecha</t>
-  </si>
-  <si>
-    <t>Personas Naturales</t>
-  </si>
-  <si>
-    <t>Personas Jurídicas</t>
-  </si>
-  <si>
-    <t>NOMBRE (S) Y APELLIDOS</t>
-  </si>
-  <si>
-    <t>NÚMERO DE DOCUMENTO DE IDENTIFICACIÓN</t>
-  </si>
-  <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
     <t>ENTIDAD:_____________________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">                    LIBRO 1°, TÍTULO I, CAPÍTULO VII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            ANEXO 12: NÓMINA DE LAS PERSONAS NATURALES Y/O JURÍDICAS FUNDADORES</t>
-  </si>
-  <si>
-    <t>NÚMERO DE IDENTIFICACIÓN TRIBUTARIA (Si Corresponde)</t>
-  </si>
-  <si>
-    <t>RELACIÓN DE SUS ASOCIADOS SEGÚN CORRESPONDA HASTA EL NIVEL DE PERSONAS NATURALES</t>
+    <t>RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS</t>
+  </si>
+  <si>
+    <t>LIBRO 1°, TÍTULO I, CAPÍTULO VII</t>
+  </si>
+  <si>
+    <t>NÚMERO DE IDENTIFICACIÓN TRIBUTARIA
+(Si Corresponde)</t>
+  </si>
+  <si>
+    <t>RELACIÓN DE SUS ASOCIADOS SEGÚN CORRESPONDA HASTA EL NIVEL DE
+PERSONAS NATURALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">________________________________________ </t>
+  </si>
+  <si>
+    <t>ANEXO 12: NÓMINA DE LOS FUNDADORES</t>
+  </si>
+  <si>
+    <t>RAZÓN SOCIAL O DENOMINACIÓN</t>
+  </si>
+  <si>
+    <t>Lugar y fecha:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,35 +87,44 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -139,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -169,19 +168,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -228,17 +214,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -251,19 +226,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -290,83 +252,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -676,17 +627,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H32"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="54" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="3.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="3.7109375" style="1" hidden="1" customWidth="1"/>
@@ -694,290 +645,201 @@
     <col min="9" max="16384" width="3.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+    <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="12" spans="1:8" s="15" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="1:8" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-    </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-    </row>
-    <row r="10" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-    </row>
-    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-    </row>
-    <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-    </row>
-    <row r="25" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-    </row>
-    <row r="26" spans="1:8" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-    </row>
-    <row r="27" spans="1:8" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
+  <mergeCells count="15">
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E12:H12"/>
     <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E10:H10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
-RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
-    <oddFooter>&amp;L&amp;"Times New Roman,Cursiva"&amp;10____________________________________________________________
-Circular ASFI/391/16 (05/16)  Inicial
-&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1° 
+    <oddFooter>&amp;L&amp;"Times New Roman,Negrita"&amp;10&amp;U&amp;K0070C0Control de versiones&amp;"Times New Roman,Cursiva"&amp;U&amp;K01+000
+Circular ASFI/742/2022 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1° 
 Título I 
 Capítulo VII 
 Anexo  12
